--- a/Community-Each-Stage/Cloudnloud-Community-Each Stages-v1.0.xlsx
+++ b/Community-Each-Stage/Cloudnloud-Community-Each Stages-v1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cloudnloud\community stages\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cloudnloud\github\teams\Community-Each-Stage\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -689,8 +689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1146,7 +1146,7 @@
     </row>
     <row r="33" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A33" s="4">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>4</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="35" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A35" s="4">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>3</v>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="36" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A36" s="4">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>3</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="37" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A37" s="4">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>3</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="38" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A38" s="4">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>3</v>
@@ -1220,7 +1220,7 @@
     </row>
     <row r="39" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A39" s="4">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>3</v>
@@ -1233,7 +1233,7 @@
     </row>
     <row r="40" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A40" s="4">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>3</v>
@@ -1253,7 +1253,7 @@
     </row>
     <row r="42" spans="1:5" ht="55.5" x14ac:dyDescent="0.45">
       <c r="A42" s="4">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>46</v>
@@ -1270,7 +1270,7 @@
     </row>
     <row r="43" spans="1:5" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A43" s="4">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B43" s="10" t="s">
         <v>46</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="44" spans="1:5" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A44" s="4">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>46</v>
@@ -1300,7 +1300,7 @@
     </row>
     <row r="45" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A45" s="4">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B45" s="10" t="s">
         <v>46</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="48" spans="1:5" ht="74" x14ac:dyDescent="0.45">
       <c r="A48" s="4">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>47</v>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.45">
       <c r="A49" s="4">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>47</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="50" spans="1:5" ht="44.5" x14ac:dyDescent="0.45">
       <c r="A50" s="4">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>47</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="51" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A51" s="4">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>47</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="53" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A53" s="4">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>63</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="54" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A54" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>63</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="55" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A55" s="4">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>63</v>
@@ -1452,7 +1452,7 @@
     </row>
     <row r="57" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A57" s="4">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>68</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="58" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A58" s="4">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>68</v>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="59" spans="1:5" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A59" s="4">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>68</v>
